--- a/bin/xlsx/type/TipType.xlsx
+++ b/bin/xlsx/type/TipType.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fenghaiyu/workspace/simple_game_server/bin/xlsx/type/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576FB4A4-2A28-534F-8994-F2BBC11BE813}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17800" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -35,91 +41,107 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>levelLess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>等级不足</t>
     <rPh sb="2" eb="3">
       <t>gong'ju</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CoinLess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>银币不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GoldLess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>金币不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NoPlayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>没有Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>accountError</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>账户错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mailNoExist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>邮件不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bagNotEnough</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>背包空间不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mailHasItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>邮件有物品，不能删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoUid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -204,42 +226,45 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -255,7 +280,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,7 +322,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +354,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +406,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,21 +599,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="49.625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -585,7 +646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -596,7 +657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -607,7 +668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -618,7 +679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -629,7 +690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -640,7 +701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -651,7 +712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -662,7 +723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="15">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -673,8 +734,19 @@
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/bin/xlsx/type/TipType.xlsx
+++ b/bin/xlsx/type/TipType.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fenghaiyu/workspace/simple_game_server/bin/xlsx/type/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576FB4A4-2A28-534F-8994-F2BBC11BE813}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EEAAB6-0FF9-5B40-A809-5B1D883ABA9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17800" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="520" windowWidth="17800" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -41,99 +41,131 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>levelLess</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>等级不足</t>
     <rPh sb="2" eb="3">
       <t>gong'ju</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CoinLess</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>银币不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GoldLess</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>金币不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NoPlayer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>没有Player</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>accountError</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>账户错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mailNoExist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>邮件不存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bagNotEnough</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>背包空间不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mailHasItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>邮件有物品，不能删除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NoUid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>没有用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitOverTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问超时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemError</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统错误</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -226,37 +258,43 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -600,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -745,8 +783,30 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="10">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="11">
+        <v>11</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/bin/xlsx/type/TipType.xlsx
+++ b/bin/xlsx/type/TipType.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fenghaiyu/workspace/simple_game_server/bin/xlsx/type/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EEAAB6-0FF9-5B40-A809-5B1D883ABA9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7C049A-A4A6-D448-A2DC-77DE146905C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="520" windowWidth="17800" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -41,115 +41,131 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>levelLess</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>等级不足</t>
     <rPh sb="2" eb="3">
       <t>gong'ju</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CoinLess</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>银币不足</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GoldLess</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>金币不足</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>NoPlayer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>没有Player</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>accountError</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>账户错误</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>mailNoExist</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>邮件不存在</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>bagNotEnough</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>背包空间不足</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>mailHasItem</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>邮件有物品，不能删除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>NoUid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>没有用户</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>visitOverTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>访问超时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SystemError</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>系统错误</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupSendCantHaveReturnValue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群发不能有返回值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -258,37 +274,40 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -638,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -805,8 +824,19 @@
         <v>29</v>
       </c>
     </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="12">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/bin/xlsx/type/TipType.xlsx
+++ b/bin/xlsx/type/TipType.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fenghaiyu/workspace/simple_game_server/bin/xlsx/type/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7C049A-A4A6-D448-A2DC-77DE146905C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAB224D-43D6-D240-B72D-A00FA9947399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="520" windowWidth="17800" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -41,123 +41,139 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>levelLess</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>等级不足</t>
     <rPh sb="2" eb="3">
       <t>gong'ju</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CoinLess</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>银币不足</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>GoldLess</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金币不足</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NoPlayer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>没有Player</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>accountError</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>账户错误</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>mailNoExist</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>邮件不存在</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>bagNotEnough</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>背包空间不足</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>mailHasItem</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>邮件有物品，不能删除</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NoUid</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>没有用户</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>visitOverTime</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>访问超时</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SystemError</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>系统错误</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>groupSendCantHaveReturnValue</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>群发不能有返回值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>unionNameExist</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派名字存在</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -274,37 +290,40 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -657,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -835,8 +854,19 @@
         <v>31</v>
       </c>
     </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="13">
+        <v>13</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/bin/xlsx/type/TipType.xlsx
+++ b/bin/xlsx/type/TipType.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fenghaiyu/workspace/simple_game_server/bin/xlsx/type/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\simple_game_server\bin\xlsx\type\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAB224D-43D6-D240-B72D-A00FA9947399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="520" windowWidth="17800" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="525" windowWidth="17805" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -154,12 +153,20 @@
     <t>帮派名字存在</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>noBattlePlayer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有BattlePlayer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,8 +346,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,23 +438,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -483,23 +473,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -675,21 +648,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="49.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -711,7 +684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -722,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -733,7 +706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -744,7 +717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -755,7 +728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -766,7 +739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -777,7 +750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -788,7 +761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -799,7 +772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -810,7 +783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -821,7 +794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>10</v>
       </c>
@@ -832,7 +805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -843,7 +816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -854,7 +827,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>13</v>
       </c>
@@ -863,6 +836,17 @@
       </c>
       <c r="C17" s="8" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>14</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
